--- a/DB_Board/DB_Board 기능 명세서.xlsx
+++ b/DB_Board/DB_Board 기능 명세서.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d65d426f4facf2ed/PortFolio/DB_Board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyoz\OneDrive\PortFolio\DB_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t xml:space="preserve">PROJECT NAME : DB_BOARD   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프링으로 제작하는 기본적인 블로깅 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>종합 기능 : 기본적인 블로깅 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,23 +469,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>작업기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2017.07.01 ~ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">라. 기타 기여 기간 및 설명 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front, Back, DB , Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,6 +642,45 @@
   </si>
   <si>
     <t>영상 프리뷰 및 업로드 ( 구현중 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web site 및 Android Phone Size 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.07.01 ~ 2017.08.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Site &amp; Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링으로 제작하는 기본적인 반응형 웹 + 모바일 최적화 블로깅 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합 기능 : 기본적인  반응형 웹 + 모바일 최적화 블로깅 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back End
+Front End
+Server
+Android</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,122 +1121,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J50" activeCellId="1" sqref="L61 J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1580,663 +1598,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+      <c r="A3" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
+      <c r="A5" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="22"/>
+      <c r="K12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="7"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="7"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="16"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="7"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="7"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="19"/>
+      <c r="B34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B36" s="2"/>
     </row>
@@ -2244,164 +2296,164 @@
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C44" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C45" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4" t="s">
+      <c r="C46" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="19"/>
+      <c r="B49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="29"/>
-      <c r="B49" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2"/>
     </row>
@@ -2409,229 +2461,321 @@
       <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="17"/>
+      <c r="B60" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="C60" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="17"/>
+      <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26" t="s">
+      <c r="C62" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H59" s="41"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="34">
-        <v>5.7</v>
-      </c>
-      <c r="H60" s="41"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="41"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H62" s="41"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="8" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="17"/>
+      <c r="B64" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C64" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="41"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="41"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="8" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="17"/>
+      <c r="B66" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C66" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="17"/>
+      <c r="B67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="17"/>
+      <c r="B68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H65" s="41"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="4" t="s">
+      <c r="B69" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="H66" s="41"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="H67" s="41"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="41"/>
-    </row>
-    <row r="69" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" s="42"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B70" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>158</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="108">
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G13:H16"/>
+    <mergeCell ref="I13:J16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:D16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:N4"/>
+    <mergeCell ref="A5:N6"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C17:D34"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="G17:H34"/>
+    <mergeCell ref="I17:J34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="C58:F58"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="G68:H68"/>
@@ -2656,89 +2800,6 @@
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="G17:H34"/>
-    <mergeCell ref="I17:J34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C17:D34"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:N4"/>
-    <mergeCell ref="A5:N6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G13:H16"/>
-    <mergeCell ref="I13:J16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:D16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
